--- a/docs/thesis/docs.xlsx
+++ b/docs/thesis/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF578077-48D0-BA47-B3D5-304A547CBD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0967694B-9ED4-2145-B340-4ACD66057843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="3020" windowWidth="24260" windowHeight="14980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>body</t>
-  </si>
-  <si>
     <t>Body</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>thesis-slides</t>
+  </si>
+  <si>
+    <t>thesis-body</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,30 +456,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">

--- a/docs/thesis/docs.xlsx
+++ b/docs/thesis/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwseitz/git/cwseitz.github.io/docs/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0967694B-9ED4-2145-B340-4ACD66057843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80A5944-3132-8A47-BA6E-4DF50C086A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="3020" windowWidth="24260" windowHeight="14980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,12 +42,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>Slides</t>
-  </si>
-  <si>
     <t>Thesis</t>
   </si>
   <si>
@@ -58,6 +52,12 @@
   </si>
   <si>
     <t>thesis-body</t>
+  </si>
+  <si>
+    <t>Thesis Body</t>
+  </si>
+  <si>
+    <t>Thesis Slides</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,30 +456,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">

--- a/docs/thesis/docs.xlsx
+++ b/docs/thesis/docs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t xml:space="preserve">Professional Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statement of Purpose</t>
   </si>
 </sst>
 </file>
@@ -189,10 +195,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.66"/>
@@ -257,10 +263,18 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
